--- a/dataset/허브 광량 환경 데이터셋.xlsx
+++ b/dataset/허브 광량 환경 데이터셋.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hajun\source\repos\Python\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hajun\source\repos\Python\HerbLight_Advisor_AI\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21696" windowHeight="10152"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21696" windowHeight="10152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="원인" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>광 노출시간(시간)</t>
   </si>
   <si>
-    <t>로즈마리 DLI충족도(%)</t>
-  </si>
-  <si>
     <t>스위트바질 DLI충족도(%)</t>
   </si>
   <si>
@@ -41,6 +38,10 @@
   </si>
   <si>
     <t>레몬밤 DLI충족도(%)</t>
+  </si>
+  <si>
+    <t>로즈마리 DLI충족도(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -414,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -2042,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2056,19 +2057,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
